--- a/ids.xlsx
+++ b/ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hilda\folkdataset\folkdataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE59894-BA70-4FA7-A7A8-88DEED4C1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B58CA-C6C6-4CF1-B54B-4A211FFADA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="605">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>dataset</t>
+  </si>
+  <si>
     <t>filename</t>
   </si>
   <si>
+    <t>irish</t>
+  </si>
+  <si>
     <t>barndance_A-Trip-To-Bavaria_1_e_1.krn</t>
   </si>
   <si>
@@ -926,6 +932,9 @@
   </si>
   <si>
     <t>waltz_Winter-Sky_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>galician</t>
   </si>
   <si>
     <t>pezas_alalas_alala-10_alala-partitura_1_e_1.krn</t>
@@ -1888,8 +1897,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1898,7 +1910,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1955,10 +1970,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE69CEB7-F75B-4D80-B67F-1D379D4C57A3}" name="Tabla1" displayName="Tabla1" ref="A1:B601" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:B601" xr:uid="{DE69CEB7-F75B-4D80-B67F-1D379D4C57A3}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE69CEB7-F75B-4D80-B67F-1D379D4C57A3}" name="Tabla1" displayName="Tabla1" ref="A1:C601" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:C601" xr:uid="{DE69CEB7-F75B-4D80-B67F-1D379D4C57A3}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{62E647B4-7504-4780-A69C-D293D600DAC5}" name="id"/>
+    <tableColumn id="2" xr3:uid="{511F349C-68B9-4E05-8A91-084441A775DD}" name="dataset" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{8F62A4AC-1B91-4BAC-9210-C1E450C4A2A2}" name="filename"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2250,4824 +2266,6628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:C601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" customWidth="1"/>
-    <col min="2" max="2" width="117.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="117.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C250" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C272" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C279" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B280" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B281" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B282" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B283" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B284" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B285" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B286" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B287" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B289" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B290" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B291" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B292" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B305" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C305" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B306" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C306" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B307" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C307" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B308" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C308" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B309" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B310" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C310" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B311" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C311" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B312" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C312" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B313" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C313" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B314" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C314" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B315" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C315" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B316" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C316" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B317" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C317" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B318" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C318" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B319" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C319" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B320" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B321" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C321" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B322" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C322" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B323" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C323" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B324" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C324" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B325" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C325" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B326" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B327" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C327" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B328" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C328" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B329" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C329" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B330" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C330" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B331" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C331" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B332" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C332" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B333" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C333" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B334" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C334" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B335" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C335" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B336" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C336" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B337" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C337" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B338" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C338" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B339" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C339" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B340" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C340" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B341" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C341" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B342" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C342" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B343" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C343" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B344" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C344" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B345" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C345" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B346" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C346" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B347" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C347" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B348" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C348" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B349" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C349" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B350" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C350" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B351" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C351" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B352" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C352" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B353" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C353" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B354" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C354" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B355" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B356" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C356" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B357" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C357" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B358" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C358" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B359" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C359" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B360" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C360" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B361" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C361" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B362" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C362" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B363" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C363" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B364" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C364" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B365" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C365" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B366" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C366" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B367" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C367" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B368" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C368" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B369" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C369" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B370" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C370" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B371" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B372" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C372" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B373" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C373" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B374" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C374" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B375" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C375" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B376" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C376" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B377" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C377" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B378" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C378" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B379" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B380" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C380" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B381" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C381" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B382" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C382" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B383" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C383" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B384" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C384" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B385" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C385" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B386" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C386" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B387" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C387" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B388" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C388" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B389" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C389" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B390" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C390" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B391" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C391" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B392" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C392" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B393" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C393" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B394" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C394" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B395" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C395" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B396" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C396" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B397" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C397" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B398" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C398" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B399" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C399" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B400" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C400" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B401" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C401" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B402" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C402" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B403" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C403" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B404" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C404" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B405" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C405" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B406" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C406" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B407" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C407" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B408" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C408" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B409" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C409" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B410" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C410" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B411" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C411" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B412" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C412" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B413" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C413" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B414" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C414" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B415" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C415" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B416" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C416" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B417" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C417" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B418" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C418" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B419" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C419" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B420" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C420" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B421" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C421" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B422" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C422" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B423" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C423" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B424" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C424" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B425" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C425" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B426" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C426" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B427" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C427" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B428" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C428" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B429" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C429" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B430" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C430" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B431" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C431" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B432" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C432" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B433" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C433" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B434" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C434" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B435" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C435" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B436" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C436" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B437" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C437" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B438" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C438" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B439" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C439" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B440" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C440" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B441" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C441" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B442" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C442" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B443" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C443" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B444" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C444" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B445" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C445" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B446" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C446" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B447" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C447" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B448" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C448" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B449" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C449" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B450" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C450" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B451" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C451" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B452" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C452" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B453" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C453" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B454" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C454" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B455" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C455" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B456" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C456" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B457" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C457" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B458" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C458" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B459" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C459" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B460" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C460" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B461" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C461" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B462" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C462" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B463" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C463" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B464" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C464" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B465" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C465" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B466" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C466" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B467" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C467" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B468" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C468" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B469" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C469" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B470" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C470" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B471" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C471" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B472" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C472" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B473" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C473" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B474" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C474" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B475" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C475" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B476" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C476" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B477" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C477" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B478" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C478" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B479" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C479" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B480" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C480" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B481" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C481" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B482" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C482" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B483" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C483" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B484" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C484" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B485" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C485" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B486" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C486" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B487" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C487" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B488" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C488" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B489" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C489" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B490" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C490" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B491" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C491" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B492" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C492" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B493" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C493" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B494" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C494" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B495" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C495" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B496" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C496" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B497" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C497" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B498" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C498" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B499" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C499" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B500" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C500" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B501" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C501" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>501</v>
       </c>
-      <c r="B502" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B502" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C502" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>502</v>
       </c>
-      <c r="B503" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B503" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C503" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>503</v>
       </c>
-      <c r="B504" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B504" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C504" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>504</v>
       </c>
-      <c r="B505" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B505" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C505" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>505</v>
       </c>
-      <c r="B506" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B506" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C506" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>506</v>
       </c>
-      <c r="B507" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B507" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C507" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>507</v>
       </c>
-      <c r="B508" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B508" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C508" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>508</v>
       </c>
-      <c r="B509" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B509" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C509" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>509</v>
       </c>
-      <c r="B510" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B510" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C510" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>510</v>
       </c>
-      <c r="B511" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B511" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C511" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>511</v>
       </c>
-      <c r="B512" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B512" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C512" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>512</v>
       </c>
-      <c r="B513" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B513" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C513" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>513</v>
       </c>
-      <c r="B514" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B514" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C514" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>514</v>
       </c>
-      <c r="B515" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B515" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C515" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>515</v>
       </c>
-      <c r="B516" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B516" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C516" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>516</v>
       </c>
-      <c r="B517" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B517" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C517" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>517</v>
       </c>
-      <c r="B518" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B518" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C518" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>518</v>
       </c>
-      <c r="B519" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B519" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C519" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>519</v>
       </c>
-      <c r="B520" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B520" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C520" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>520</v>
       </c>
-      <c r="B521" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B521" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C521" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>521</v>
       </c>
-      <c r="B522" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B522" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C522" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>522</v>
       </c>
-      <c r="B523" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B523" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C523" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>523</v>
       </c>
-      <c r="B524" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B524" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C524" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>524</v>
       </c>
-      <c r="B525" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B525" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C525" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>525</v>
       </c>
-      <c r="B526" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B526" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C526" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>526</v>
       </c>
-      <c r="B527" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B527" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C527" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>527</v>
       </c>
-      <c r="B528" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B528" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C528" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>528</v>
       </c>
-      <c r="B529" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B529" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C529" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>529</v>
       </c>
-      <c r="B530" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B530" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C530" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>530</v>
       </c>
-      <c r="B531" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B531" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C531" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>531</v>
       </c>
-      <c r="B532" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B532" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C532" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>532</v>
       </c>
-      <c r="B533" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B533" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C533" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>533</v>
       </c>
-      <c r="B534" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B534" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C534" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>534</v>
       </c>
-      <c r="B535" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B535" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C535" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>535</v>
       </c>
-      <c r="B536" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B536" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C536" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>536</v>
       </c>
-      <c r="B537" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B537" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C537" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>537</v>
       </c>
-      <c r="B538" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B538" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C538" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>538</v>
       </c>
-      <c r="B539" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B539" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C539" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>539</v>
       </c>
-      <c r="B540" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B540" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C540" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>540</v>
       </c>
-      <c r="B541" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B541" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C541" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>541</v>
       </c>
-      <c r="B542" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B542" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C542" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>542</v>
       </c>
-      <c r="B543" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B543" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C543" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>543</v>
       </c>
-      <c r="B544" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B544" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C544" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>544</v>
       </c>
-      <c r="B545" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B545" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C545" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>545</v>
       </c>
-      <c r="B546" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B546" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C546" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>546</v>
       </c>
-      <c r="B547" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B547" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C547" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>547</v>
       </c>
-      <c r="B548" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B548" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C548" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>548</v>
       </c>
-      <c r="B549" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B549" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C549" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>549</v>
       </c>
-      <c r="B550" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B550" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C550" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>550</v>
       </c>
-      <c r="B551" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B551" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C551" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>551</v>
       </c>
-      <c r="B552" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B552" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C552" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>552</v>
       </c>
-      <c r="B553" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B553" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C553" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>553</v>
       </c>
-      <c r="B554" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B554" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C554" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>554</v>
       </c>
-      <c r="B555" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B555" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C555" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>555</v>
       </c>
-      <c r="B556" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B556" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C556" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>556</v>
       </c>
-      <c r="B557" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B557" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C557" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>557</v>
       </c>
-      <c r="B558" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B558" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C558" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>558</v>
       </c>
-      <c r="B559" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B559" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C559" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>559</v>
       </c>
-      <c r="B560" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B560" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C560" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>560</v>
       </c>
-      <c r="B561" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B561" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C561" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>561</v>
       </c>
-      <c r="B562" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B562" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C562" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>562</v>
       </c>
-      <c r="B563" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B563" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C563" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>563</v>
       </c>
-      <c r="B564" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B564" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C564" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>564</v>
       </c>
-      <c r="B565" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B565" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C565" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>565</v>
       </c>
-      <c r="B566" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B566" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C566" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>566</v>
       </c>
-      <c r="B567" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B567" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C567" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>567</v>
       </c>
-      <c r="B568" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B568" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C568" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>568</v>
       </c>
-      <c r="B569" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B569" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C569" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>569</v>
       </c>
-      <c r="B570" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B570" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C570" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>570</v>
       </c>
-      <c r="B571" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B571" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C571" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>571</v>
       </c>
-      <c r="B572" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B572" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C572" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>572</v>
       </c>
-      <c r="B573" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B573" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C573" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>573</v>
       </c>
-      <c r="B574" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B574" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C574" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>574</v>
       </c>
-      <c r="B575" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B575" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C575" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>575</v>
       </c>
-      <c r="B576" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B576" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C576" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>576</v>
       </c>
-      <c r="B577" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B577" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C577" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>577</v>
       </c>
-      <c r="B578" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B578" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C578" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>578</v>
       </c>
-      <c r="B579" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B579" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C579" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>579</v>
       </c>
-      <c r="B580" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B580" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C580" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>580</v>
       </c>
-      <c r="B581" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B581" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C581" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>581</v>
       </c>
-      <c r="B582" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B582" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C582" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>582</v>
       </c>
-      <c r="B583" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B583" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C583" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>583</v>
       </c>
-      <c r="B584" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B584" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C584" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>584</v>
       </c>
-      <c r="B585" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B585" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C585" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>585</v>
       </c>
-      <c r="B586" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B586" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C586" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>586</v>
       </c>
-      <c r="B587" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B587" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C587" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>587</v>
       </c>
-      <c r="B588" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B588" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C588" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>588</v>
       </c>
-      <c r="B589" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B589" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C589" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>589</v>
       </c>
-      <c r="B590" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B590" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C590" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>590</v>
       </c>
-      <c r="B591" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B591" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C591" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>591</v>
       </c>
-      <c r="B592" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B592" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C592" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>592</v>
       </c>
-      <c r="B593" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B593" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C593" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>593</v>
       </c>
-      <c r="B594" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B594" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C594" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>594</v>
       </c>
-      <c r="B595" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B595" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C595" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>595</v>
       </c>
-      <c r="B596" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B596" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C596" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>596</v>
       </c>
-      <c r="B597" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B597" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C597" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>597</v>
       </c>
-      <c r="B598" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B598" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C598" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>598</v>
       </c>
-      <c r="B599" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B599" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C599" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>599</v>
       </c>
-      <c r="B600" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B600" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C600" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>600</v>
       </c>
-      <c r="B601" t="s">
-        <v>601</v>
+      <c r="B601" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C601" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hilda\folkdataset\folkdataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B58CA-C6C6-4CF1-B54B-4A211FFADA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603FD61B-6B51-4096-8C23-C805E3645749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,12 +307,6 @@
     <t>march_An-Droichead_1_e_1.krn</t>
   </si>
   <si>
-    <t>march_Atholl-And-Breadalbane-Gathering--The_1_e_1.krn</t>
-  </si>
-  <si>
-    <t>march_Brig-O-Blair_1_e_1.krn</t>
-  </si>
-  <si>
     <t>march_Burnbank-Cottage_1_e_1.krn</t>
   </si>
   <si>
@@ -340,12 +334,6 @@
     <t>march_Irene-Meldrums-Welcome-To-Bon-Accord_1_e_1.krn</t>
   </si>
   <si>
-    <t>march_John-MacDonald-Of-Glencoe_1_e_1.krn</t>
-  </si>
-  <si>
-    <t>march_Kenneth-J-MacLeod_1_e_1.krn</t>
-  </si>
-  <si>
     <t>march_Leaving-Of-Liverpool--The_1_e_1.krn</t>
   </si>
   <si>
@@ -367,9 +355,6 @@
     <t>march_Nancy_1_e_1.krn</t>
   </si>
   <si>
-    <t>march_Ode-To-Joy_1_e_1.krn</t>
-  </si>
-  <si>
     <t>march_Patty-Ann_2_e_1.krn</t>
   </si>
   <si>
@@ -1835,6 +1820,21 @@
   </si>
   <si>
     <t>pezas_valses_xardin-dos-meus-amores_xardin-dos-meus-amores-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>march_August_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>march_Cave-Hill-Side_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>march_John-Barleycorn_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>march_Kelsen-Side_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>march_Old-Rustic-Bridge_1_e_1.krn</t>
   </si>
 </sst>
 </file>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>601</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3321,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -3332,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -3343,7 +3343,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -3354,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -3365,7 +3365,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -3398,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -3453,7 +3453,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -3464,7 +3464,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -3475,7 +3475,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -3486,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -3497,7 +3497,7 @@
         <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -3508,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -3530,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -3541,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -3552,7 +3552,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -3563,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -3574,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -3585,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -3596,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -3607,7 +3607,7 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -3618,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -3640,7 +3640,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -3651,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -3662,7 +3662,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -3695,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -3706,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -3717,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -3728,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -3739,7 +3739,7 @@
         <v>3</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -3750,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -3772,7 +3772,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -3827,7 +3827,7 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -3838,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -3871,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -3893,7 +3893,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -3904,7 +3904,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -3915,7 +3915,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -3926,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -3937,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -3959,7 +3959,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -3970,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -3981,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -4014,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -4025,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -4036,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -4058,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -4069,7 +4069,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -4080,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -4146,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -4179,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -4212,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -4223,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -4278,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -4289,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -4311,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -4322,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -4355,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -4487,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -4531,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -4542,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -4553,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -4564,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -4575,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -4586,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -4630,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -4685,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -4729,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -4751,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -4773,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -4795,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -4817,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -4839,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -4861,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -4872,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -4883,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -4927,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -4938,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="C247" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -5004,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -5015,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -5048,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -5059,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -5070,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -5081,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -5092,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -5103,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -5136,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -5147,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -5158,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -5169,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -5180,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -5202,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -5213,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -5246,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -5257,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -5290,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -5301,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="C275" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -5323,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -5334,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="C280" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -5367,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -5378,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="C282" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -5389,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -5411,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -5422,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="C286" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -5433,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="C287" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -5466,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -5477,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="C292" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -5499,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -5510,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="C294" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C295" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="C296" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -5543,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="C297" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -5565,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -5576,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="C301" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -5595,10 +5595,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C302" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -5606,10 +5606,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C303" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -5617,10 +5617,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -5628,10 +5628,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C305" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -5639,10 +5639,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C306" t="s">
         <v>304</v>
-      </c>
-      <c r="C306" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -5650,10 +5650,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C307" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -5661,10 +5661,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C308" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -5672,10 +5672,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C309" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -5683,10 +5683,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C310" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -5694,10 +5694,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C311" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -5705,10 +5705,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -5716,10 +5716,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C313" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -5727,10 +5727,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C314" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -5738,10 +5738,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C315" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -5749,10 +5749,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C316" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -5760,10 +5760,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C317" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -5771,10 +5771,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C318" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -5782,10 +5782,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C319" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -5793,10 +5793,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C320" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -5804,10 +5804,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C321" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -5815,10 +5815,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C322" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -5826,10 +5826,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C323" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -5837,10 +5837,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C324" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -5848,10 +5848,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C325" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -5859,10 +5859,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C326" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -5870,10 +5870,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C327" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
@@ -5881,10 +5881,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C328" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
@@ -5892,10 +5892,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C329" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
@@ -5903,10 +5903,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C330" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -5914,10 +5914,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C331" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -5925,10 +5925,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C332" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -5936,10 +5936,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C333" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -5947,10 +5947,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C334" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -5958,10 +5958,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C335" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -5969,10 +5969,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C336" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -5980,10 +5980,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C337" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -5991,10 +5991,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C338" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -6002,10 +6002,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C339" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -6013,10 +6013,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C340" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -6024,10 +6024,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C341" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -6035,10 +6035,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C342" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -6046,10 +6046,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C343" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -6057,10 +6057,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C344" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -6068,10 +6068,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C345" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -6079,10 +6079,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C346" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -6090,10 +6090,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C347" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -6101,10 +6101,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C348" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -6112,10 +6112,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C349" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -6123,10 +6123,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C350" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -6134,10 +6134,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C351" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -6145,10 +6145,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C352" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -6156,10 +6156,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C353" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,10 +6167,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C354" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
@@ -6178,10 +6178,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C355" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -6189,10 +6189,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C356" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
@@ -6200,10 +6200,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C357" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -6211,10 +6211,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C358" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -6222,10 +6222,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C359" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -6233,10 +6233,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C360" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -6244,10 +6244,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C361" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -6255,10 +6255,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C362" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -6266,10 +6266,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C363" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -6277,10 +6277,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C364" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -6288,10 +6288,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C365" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -6299,10 +6299,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C366" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -6310,10 +6310,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C367" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -6321,10 +6321,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C368" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -6332,10 +6332,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C369" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -6343,10 +6343,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C370" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -6354,10 +6354,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C371" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -6365,10 +6365,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C372" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -6376,10 +6376,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C373" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -6387,10 +6387,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C374" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -6398,10 +6398,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C375" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -6409,10 +6409,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C376" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -6420,10 +6420,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C377" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -6431,10 +6431,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C378" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
@@ -6442,10 +6442,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C379" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
@@ -6453,10 +6453,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C380" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -6464,10 +6464,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C381" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -6475,10 +6475,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C382" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -6486,10 +6486,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C383" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -6497,10 +6497,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C384" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -6508,10 +6508,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C385" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -6519,10 +6519,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C386" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
@@ -6530,10 +6530,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C387" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
@@ -6541,10 +6541,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C388" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
@@ -6552,10 +6552,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C389" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -6563,10 +6563,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C390" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
@@ -6574,10 +6574,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C391" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
@@ -6585,10 +6585,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C392" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
@@ -6596,10 +6596,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C393" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
@@ -6607,10 +6607,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C394" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -6618,10 +6618,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C395" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -6629,10 +6629,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C396" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
@@ -6640,10 +6640,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C397" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
@@ -6651,10 +6651,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C398" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
@@ -6662,10 +6662,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C399" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
@@ -6673,10 +6673,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C400" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
@@ -6684,10 +6684,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C401" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -6695,10 +6695,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C402" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
@@ -6706,10 +6706,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C403" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
@@ -6717,10 +6717,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C404" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
@@ -6728,10 +6728,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C405" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -6739,10 +6739,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C406" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
@@ -6750,10 +6750,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C407" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
@@ -6761,10 +6761,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C408" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
@@ -6772,10 +6772,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C409" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
@@ -6783,10 +6783,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C410" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
@@ -6794,10 +6794,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C411" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
@@ -6805,10 +6805,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C412" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
@@ -6816,10 +6816,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C413" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -6827,10 +6827,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C414" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
@@ -6838,10 +6838,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C415" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
@@ -6849,10 +6849,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C416" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
@@ -6860,10 +6860,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C417" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
@@ -6871,10 +6871,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C418" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -6882,10 +6882,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C419" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -6893,10 +6893,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C420" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
@@ -6904,10 +6904,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C421" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
@@ -6915,10 +6915,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C422" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
@@ -6926,10 +6926,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C423" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -6937,10 +6937,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C424" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -6948,10 +6948,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C425" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -6959,10 +6959,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C426" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -6970,10 +6970,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C427" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -6981,10 +6981,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C428" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -6992,10 +6992,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C429" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -7003,10 +7003,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C430" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
@@ -7014,10 +7014,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C431" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -7025,10 +7025,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C432" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -7036,10 +7036,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C433" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -7047,10 +7047,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C434" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -7058,10 +7058,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C435" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -7069,10 +7069,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C436" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -7080,10 +7080,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C437" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -7091,10 +7091,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C438" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
@@ -7102,10 +7102,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C439" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -7113,10 +7113,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C440" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
@@ -7124,10 +7124,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C441" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
@@ -7135,10 +7135,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C442" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -7146,10 +7146,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C443" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -7157,10 +7157,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C444" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
@@ -7168,10 +7168,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C445" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -7179,10 +7179,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C446" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -7190,10 +7190,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C447" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
@@ -7201,10 +7201,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C448" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
@@ -7212,10 +7212,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C449" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -7223,10 +7223,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C450" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
@@ -7234,10 +7234,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C451" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
@@ -7245,10 +7245,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C452" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
@@ -7256,10 +7256,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C453" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
@@ -7267,10 +7267,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C454" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
@@ -7278,10 +7278,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C455" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
@@ -7289,10 +7289,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C456" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
@@ -7300,10 +7300,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C457" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -7311,10 +7311,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C458" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
@@ -7322,10 +7322,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C459" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -7333,10 +7333,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C460" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -7344,10 +7344,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C461" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
@@ -7355,10 +7355,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C462" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -7366,10 +7366,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C463" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
@@ -7377,10 +7377,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C464" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
@@ -7388,10 +7388,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C465" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
@@ -7399,10 +7399,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C466" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
@@ -7410,10 +7410,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C467" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -7421,10 +7421,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C468" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -7432,10 +7432,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C469" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
@@ -7443,10 +7443,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C470" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
@@ -7454,10 +7454,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C471" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
@@ -7465,10 +7465,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C472" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
@@ -7476,10 +7476,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C473" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
@@ -7487,10 +7487,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C474" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
@@ -7498,10 +7498,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C475" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
@@ -7509,10 +7509,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C476" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
@@ -7520,10 +7520,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C477" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
@@ -7531,10 +7531,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C478" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
@@ -7542,10 +7542,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C479" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
@@ -7553,10 +7553,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C480" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
@@ -7564,10 +7564,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C481" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -7575,10 +7575,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C482" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
@@ -7586,10 +7586,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C483" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
@@ -7597,10 +7597,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C484" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -7608,10 +7608,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C485" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
@@ -7619,10 +7619,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C486" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
@@ -7630,10 +7630,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C487" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
@@ -7641,10 +7641,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C488" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -7652,10 +7652,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C489" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
@@ -7663,10 +7663,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C490" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
@@ -7674,10 +7674,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C491" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
@@ -7685,10 +7685,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C492" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -7696,10 +7696,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C493" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
@@ -7707,10 +7707,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C494" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
@@ -7718,10 +7718,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C495" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
@@ -7729,10 +7729,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C496" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
@@ -7740,10 +7740,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C497" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -7751,10 +7751,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C498" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -7762,10 +7762,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C499" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
@@ -7773,10 +7773,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C500" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -7784,10 +7784,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C501" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -7795,10 +7795,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C502" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -7806,10 +7806,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C503" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -7817,10 +7817,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C504" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -7828,10 +7828,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C505" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -7839,10 +7839,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C506" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -7850,10 +7850,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C507" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
@@ -7861,10 +7861,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C508" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
@@ -7872,10 +7872,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C509" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
@@ -7883,10 +7883,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C510" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
@@ -7894,10 +7894,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C511" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
@@ -7905,10 +7905,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C512" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -7916,10 +7916,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C513" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
@@ -7927,10 +7927,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C514" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -7938,10 +7938,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C515" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
@@ -7949,10 +7949,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C516" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
@@ -7960,10 +7960,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C517" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
@@ -7971,10 +7971,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C518" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
@@ -7982,10 +7982,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C519" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -7993,10 +7993,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C520" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -8004,10 +8004,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C521" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -8015,10 +8015,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C522" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -8026,10 +8026,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C523" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -8037,10 +8037,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C524" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -8048,10 +8048,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C525" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
@@ -8059,10 +8059,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C526" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -8070,10 +8070,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C527" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -8081,10 +8081,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C528" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
@@ -8092,10 +8092,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C529" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -8103,10 +8103,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C530" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -8114,10 +8114,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C531" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -8125,10 +8125,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C532" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
@@ -8136,10 +8136,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C533" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
@@ -8147,10 +8147,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C534" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
@@ -8158,10 +8158,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C535" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -8169,10 +8169,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C536" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -8180,10 +8180,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C537" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
@@ -8191,10 +8191,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C538" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
@@ -8202,10 +8202,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C539" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -8213,10 +8213,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C540" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -8224,10 +8224,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C541" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -8235,10 +8235,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C542" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -8246,10 +8246,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C543" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -8257,10 +8257,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C544" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -8268,10 +8268,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C545" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -8279,10 +8279,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C546" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -8290,10 +8290,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C547" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -8301,10 +8301,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C548" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -8312,10 +8312,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C549" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -8323,10 +8323,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C550" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -8334,10 +8334,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C551" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -8345,10 +8345,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C552" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -8356,10 +8356,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C553" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -8367,10 +8367,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C554" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -8378,10 +8378,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C555" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -8389,10 +8389,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C556" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -8400,10 +8400,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C557" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -8411,10 +8411,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C558" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -8422,10 +8422,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C559" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -8433,10 +8433,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C560" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -8444,10 +8444,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C561" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -8455,10 +8455,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C562" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -8466,10 +8466,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C563" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -8477,10 +8477,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C564" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -8488,10 +8488,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C565" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -8499,10 +8499,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C566" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -8510,10 +8510,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C567" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -8521,10 +8521,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C568" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -8532,10 +8532,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C569" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -8543,10 +8543,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C570" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -8554,10 +8554,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C571" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -8565,10 +8565,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C572" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -8576,10 +8576,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C573" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -8587,10 +8587,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C574" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -8598,10 +8598,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C575" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -8609,10 +8609,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C576" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -8620,10 +8620,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C577" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -8631,10 +8631,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C578" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -8642,10 +8642,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C579" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -8653,10 +8653,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C580" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -8664,10 +8664,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C581" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -8675,10 +8675,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C582" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -8686,10 +8686,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C583" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -8697,10 +8697,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C584" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
@@ -8708,10 +8708,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C585" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -8719,10 +8719,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C586" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
@@ -8730,10 +8730,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C587" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
@@ -8741,10 +8741,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C588" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
@@ -8752,10 +8752,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C589" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
@@ -8763,10 +8763,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C590" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -8774,10 +8774,10 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C591" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
@@ -8785,10 +8785,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C592" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
@@ -8796,10 +8796,10 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C593" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -8807,10 +8807,10 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C594" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
@@ -8818,10 +8818,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C595" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
@@ -8829,10 +8829,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C596" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -8840,10 +8840,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C597" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
@@ -8851,10 +8851,10 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C598" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -8862,10 +8862,10 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C599" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -8873,10 +8873,10 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C600" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
@@ -8884,10 +8884,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C601" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hilda\folkdataset\folkdataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603FD61B-6B51-4096-8C23-C805E3645749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC37A5F-C03A-4B6E-91F5-0FA53455F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,15 +1009,9 @@
     <t>pezas_alalas_canta-o-merlo-na-silveira_canta-o-merlo-na-silveira-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_alalas_de-manancina_de-manancina-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_foliadas_a-feira-de-paiosaco_a-feira-de-paiosaco-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_foliadas_a-rianxeira_a-rianxeira-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_foliadas_amor-rianxeiro_amor-rianxeiro-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1051,9 +1045,6 @@
     <t>pezas_foliadas_foliada-de-berducido_foliada-de-berducido-partitura-2_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_foliadas_foliada-de-berducido_foliada-de-berducido-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_foliadas_foliada-de-bora_foliada-de-bora-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1063,9 +1054,6 @@
     <t>pezas_foliadas_foliada-de-carril_foliada-de-carril-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_foliadas_foliada-de-combarro_foliada-de-combarro-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_foliadas_foliada-de-conxo_foliada-de-conxo-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1084,9 +1072,6 @@
     <t>pezas_foliadas_foliada-de-san-tirso_foliada-de-san-tirso-partitura-1_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_foliadas_foliada-de-vilaboa_foliada-de-vilaboa-partitura-1_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_foliadas_foliada-de-vilaboa_foliada-de-vilaboa-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1108,9 +1093,6 @@
     <t>pezas_jotas_a-regueifa_a-regueifa-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_jotas_aforamento-dunha-jota-de-auga-nun-micromatraz_aforamento-dunha-jota-de-auga-nun-micromatraz-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_jotas_alghun-dia_alghun-dia-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1126,9 +1108,6 @@
     <t>pezas_jotas_jota-de-arbo-1_jota-de-arbo-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_jotas_jota-de-arbo_jota-de-arbo-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_jotas_jota-de-beigondo_jota-de-beigondo-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1141,12 +1120,6 @@
     <t>pezas_jotas_jota-de-foxado_jota-de-foxado-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_jotas_jota-de-paradela_jota-de-paradela-partitura_2_e_1.krn</t>
-  </si>
-  <si>
-    <t>pezas_jotas_jota-de-poio_jota-de-poio-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_jotas_jota-de-pontevedra-5_jota-de-pontevedra-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1165,9 +1138,6 @@
     <t>pezas_jotas_jota-de-son-1_jota-de-son-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_jotas_jota-de-tui_jota-de-tui-partitura-1_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_jotas_jota-de-tui_jota-de-tui-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1198,15 +1168,9 @@
     <t>pezas_marchas_batendo-rexo_batendo-rexo-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_marchas_chovendo-en-compostela_chovendo-en-compostela-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_marchas_marcha-2_marcha-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_marchas_marcha-3_marcha-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_marchas_marcha-de-campano_marcha-de-campano-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1279,9 +1243,6 @@
     <t>pezas_marchas_o-santino_o-santino-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_marchas_vinte-anos_vinte-anos-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_mazurcas_a-balastreira_a-balastreira-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1414,9 +1375,6 @@
     <t>pezas_muineiras_pra-carballo_pra-carballo-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_muineiras_sono-da-papuxa_sono-da-papuxa-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_a-entrada-na-festa_a-entrada-na-festa-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1429,15 +1387,9 @@
     <t>pezas_pasacorredoiras_de-xolda_de-xolda-partitura-1_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasacorredoiras_de-xolda_de-xolda-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_no-corpus-de-pontevedra_no-corpus-de-pontevedra-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasacorredoiras_o-rodicio_o-rodicio-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_pasacalles-1_pasacalles-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1465,9 +1417,6 @@
     <t>pezas_pasacorredoiras_pasacorredoiras-2_pasacorredoiras-partitura-1_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasacorredoiras_pasacorredoiras-2_pasacorredoiras-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_pasacorredoiras-5_pasacorredoiras_2_e_1.krn</t>
   </si>
   <si>
@@ -1477,9 +1426,6 @@
     <t>pezas_pasacorredoiras_pasacorredoiras-da-fonsagrada_pasacorredoiras-da-fonsagrada-partitura-1_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasacorredoiras_pasacorredoiras-da-fonsagrada_pasodoble-da-fonsagrada-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_pasacorredoiras-de-campano_pasacorredoiras-de-campano-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1489,9 +1435,6 @@
     <t>pezas_pasacorredoiras_pasacorredoiras-de-ponteareas_pasacorredoiras-de-ponteareas-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasacorredoiras_pasacorredoiras-de-ribadavia_danza-de-ribadavia_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasacorredoiras_pasacorredoiras-de-ribadavia_pasacorredoiras-de-ribadavia-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1576,33 +1519,21 @@
     <t>pezas_pasodobles_pasodoble-dos-fosados_pasodoble-dos-fosados-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasodobles_pasodoble-dos-tres-roncos_pasodoble-dos-tres-roncos-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasodobles_pasodoble-para-chelo_pasodoble-para-chelo-partitura_2_e_1.krn</t>
   </si>
   <si>
     <t>pezas_pasodobles_pasodoble-pico_pasodoble-pico-partitura-1_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasodobles_pasodoble-pico_pasodoble-pico-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_pasodobles_pasodoble-romantico_pasodoble-romantico-partitura-1_1_e_1.krn</t>
   </si>
   <si>
     <t>pezas_pasodobles_pasodoble_pasodoble-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_pasodobles_pericote_pericote-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_polca_a-gaita-de-melchor_a-gaita-de-melchor-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_polca_falcatruadas_falcatruadas-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_polca_farruquina_farruquina-partitura-1_2_e_1.krn</t>
   </si>
   <si>
@@ -1618,12 +1549,6 @@
     <t>pezas_polca_polca-2_polca-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_polca_polca-4_polca-partitura_1_e_1.krn</t>
-  </si>
-  <si>
-    <t>pezas_polca_polca-5_polca-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_polca_polca-6_polca-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1660,12 +1585,6 @@
     <t>pezas_rumbas_rumba-4_rumba-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_rumbas_rumba-5_rumba-partitura_2_e_1.krn</t>
-  </si>
-  <si>
-    <t>pezas_rumbas_rumba-da-buxaina_rumba-da-buxaina-partitura-1_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_rumbas_rumba-da-buxaina_rumba-da-buxaina-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1729,9 +1648,6 @@
     <t>pezas_rumbas_tocale-la-bocina_tocale-la-bocina-partitura_1_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_rumbas_xaloucos_xaloucos-partitura_2_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_valses_a-beira-do-rio_a-beira-do-rio-partitura_2_e_1.krn</t>
   </si>
   <si>
@@ -1786,9 +1702,6 @@
     <t>pezas_valses_valse-de-arousa_valse-de-arousa-partitura_2_e_1.krn</t>
   </si>
   <si>
-    <t>pezas_valses_valse-de-cecebre_valse-de-cecebre-partitura_1_e_1.krn</t>
-  </si>
-  <si>
     <t>pezas_valses_valse-de-lalin_valse-de-lalin-partitura_1_e_1.krn</t>
   </si>
   <si>
@@ -1835,6 +1748,93 @@
   </si>
   <si>
     <t>march_Old-Rustic-Bridge_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_alalas_vento_vento-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_foliadas_a-marinana_a-marinana-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_foliadas_foliada-de-bergantinos_foliada-de-bergantinos-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_foliadas_foliada-de-chantada_foliada-de-chantada-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_foliadas_foliada-de-viascon_foliada-de-viascon-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_jotas_a-barquina_a-barquina-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_jotas_jota-de-barbeito_jota-de-barbeito-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_jotas_jota-de-lugo_jota-de-lugo-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_jotas_jota-de-outeiro_jota-de-outeiro-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_jotas_jota-de-vilarmaior_jota-de-vilarmaior-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_marchas_himno-galego_himno-galego-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_marchas_marcha-de-riotorto_marcha-de-riotorto-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_marchas_marcha-solemne-do-antergo-reino-de-galicia_marcha-solemne-do-antergo-reino-de-galicia-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_muineiras_reviravolta_reviravolta-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasacorredoiras_mina-nena_mina-nena-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasacorredoiras_os-rueiros_os-rueiros-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_polca_carrasqueira_carrasqueira-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_polca_danza-da-cruz_danza-da-cruz-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_polca_a-pequerrecha_a-pequerrecha-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_valses_valse-de-escornabois_valse-de-escornabois-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_rumbas_rumba-para-a-busca-do-tesouro_rumba-para-a-busca-do-tesouro-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_rumbas_rumba-corrida_rumba-corrida-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_rumbas_o-verdegaio_o-verdegaio-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasacorredoiras_pasacorredoiras-4_pasacorredoiras-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasacorredoiras_pasacorredoiras-de-arnoia_pasacorredoiras-de-arnoia-partitura_2_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasacorredoiras_pasacorredoiras-de-soutelo_pasacorredoiras-de-soutelo-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasodobles_pasodoble-dos-coutos_pasodoble-dos-coutos-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasodobles_pasodoble-requinteado_pasodoble-requinteado-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>pezas_pasodobles_pernas-pra-arriba_pernas-pra-arriba-partitura_1_e_1.krn</t>
   </si>
 </sst>
 </file>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E521" sqref="E521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>600</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>601</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>603</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>604</v>
+        <v>575</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -5917,7 +5917,7 @@
         <v>299</v>
       </c>
       <c r="C331" t="s">
-        <v>329</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -5928,7 +5928,7 @@
         <v>299</v>
       </c>
       <c r="C332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -5939,7 +5939,7 @@
         <v>299</v>
       </c>
       <c r="C333" t="s">
-        <v>331</v>
+        <v>577</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -5950,7 +5950,7 @@
         <v>299</v>
       </c>
       <c r="C334" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -5961,7 +5961,7 @@
         <v>299</v>
       </c>
       <c r="C335" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -5972,7 +5972,7 @@
         <v>299</v>
       </c>
       <c r="C336" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -5983,7 +5983,7 @@
         <v>299</v>
       </c>
       <c r="C337" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -5994,7 +5994,7 @@
         <v>299</v>
       </c>
       <c r="C338" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -6005,7 +6005,7 @@
         <v>299</v>
       </c>
       <c r="C339" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -6016,7 +6016,7 @@
         <v>299</v>
       </c>
       <c r="C340" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -6027,7 +6027,7 @@
         <v>299</v>
       </c>
       <c r="C341" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -6038,7 +6038,7 @@
         <v>299</v>
       </c>
       <c r="C342" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -6049,7 +6049,7 @@
         <v>299</v>
       </c>
       <c r="C343" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -6060,7 +6060,7 @@
         <v>299</v>
       </c>
       <c r="C344" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -6071,7 +6071,7 @@
         <v>299</v>
       </c>
       <c r="C345" t="s">
-        <v>343</v>
+        <v>578</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -6082,7 +6082,7 @@
         <v>299</v>
       </c>
       <c r="C346" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -6093,7 +6093,7 @@
         <v>299</v>
       </c>
       <c r="C347" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -6104,7 +6104,7 @@
         <v>299</v>
       </c>
       <c r="C348" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -6115,7 +6115,7 @@
         <v>299</v>
       </c>
       <c r="C349" t="s">
-        <v>347</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -6126,7 +6126,7 @@
         <v>299</v>
       </c>
       <c r="C350" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -6137,7 +6137,7 @@
         <v>299</v>
       </c>
       <c r="C351" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -6148,7 +6148,7 @@
         <v>299</v>
       </c>
       <c r="C352" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -6159,7 +6159,7 @@
         <v>299</v>
       </c>
       <c r="C353" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -6170,7 +6170,7 @@
         <v>299</v>
       </c>
       <c r="C354" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
@@ -6181,7 +6181,7 @@
         <v>299</v>
       </c>
       <c r="C355" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -6192,7 +6192,7 @@
         <v>299</v>
       </c>
       <c r="C356" t="s">
-        <v>354</v>
+        <v>580</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
@@ -6203,7 +6203,7 @@
         <v>299</v>
       </c>
       <c r="C357" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -6214,7 +6214,7 @@
         <v>299</v>
       </c>
       <c r="C358" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -6225,7 +6225,7 @@
         <v>299</v>
       </c>
       <c r="C359" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -6236,7 +6236,7 @@
         <v>299</v>
       </c>
       <c r="C360" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -6247,7 +6247,7 @@
         <v>299</v>
       </c>
       <c r="C361" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -6258,7 +6258,7 @@
         <v>299</v>
       </c>
       <c r="C362" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -6269,7 +6269,7 @@
         <v>299</v>
       </c>
       <c r="C363" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -6280,7 +6280,7 @@
         <v>299</v>
       </c>
       <c r="C364" t="s">
-        <v>362</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -6291,7 +6291,7 @@
         <v>299</v>
       </c>
       <c r="C365" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -6302,7 +6302,7 @@
         <v>299</v>
       </c>
       <c r="C366" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -6313,7 +6313,7 @@
         <v>299</v>
       </c>
       <c r="C367" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -6324,7 +6324,7 @@
         <v>299</v>
       </c>
       <c r="C368" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -6335,7 +6335,7 @@
         <v>299</v>
       </c>
       <c r="C369" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -6346,7 +6346,7 @@
         <v>299</v>
       </c>
       <c r="C370" t="s">
-        <v>368</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -6357,7 +6357,7 @@
         <v>299</v>
       </c>
       <c r="C371" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -6368,7 +6368,7 @@
         <v>299</v>
       </c>
       <c r="C372" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -6379,7 +6379,7 @@
         <v>299</v>
       </c>
       <c r="C373" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -6390,7 +6390,7 @@
         <v>299</v>
       </c>
       <c r="C374" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -6401,7 +6401,7 @@
         <v>299</v>
       </c>
       <c r="C375" t="s">
-        <v>373</v>
+        <v>583</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -6412,7 +6412,7 @@
         <v>299</v>
       </c>
       <c r="C376" t="s">
-        <v>374</v>
+        <v>584</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -6423,7 +6423,7 @@
         <v>299</v>
       </c>
       <c r="C377" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -6434,7 +6434,7 @@
         <v>299</v>
       </c>
       <c r="C378" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
@@ -6445,7 +6445,7 @@
         <v>299</v>
       </c>
       <c r="C379" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
@@ -6456,7 +6456,7 @@
         <v>299</v>
       </c>
       <c r="C380" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -6467,7 +6467,7 @@
         <v>299</v>
       </c>
       <c r="C381" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -6478,7 +6478,7 @@
         <v>299</v>
       </c>
       <c r="C382" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -6489,7 +6489,7 @@
         <v>299</v>
       </c>
       <c r="C383" t="s">
-        <v>381</v>
+        <v>585</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -6500,7 +6500,7 @@
         <v>299</v>
       </c>
       <c r="C384" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -6511,7 +6511,7 @@
         <v>299</v>
       </c>
       <c r="C385" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -6522,7 +6522,7 @@
         <v>299</v>
       </c>
       <c r="C386" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
@@ -6533,7 +6533,7 @@
         <v>299</v>
       </c>
       <c r="C387" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
@@ -6544,7 +6544,7 @@
         <v>299</v>
       </c>
       <c r="C388" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
@@ -6555,7 +6555,7 @@
         <v>299</v>
       </c>
       <c r="C389" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -6566,7 +6566,7 @@
         <v>299</v>
       </c>
       <c r="C390" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
@@ -6577,7 +6577,7 @@
         <v>299</v>
       </c>
       <c r="C391" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
@@ -6588,7 +6588,7 @@
         <v>299</v>
       </c>
       <c r="C392" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
@@ -6599,7 +6599,7 @@
         <v>299</v>
       </c>
       <c r="C393" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
@@ -6610,7 +6610,7 @@
         <v>299</v>
       </c>
       <c r="C394" t="s">
-        <v>392</v>
+        <v>586</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -6621,7 +6621,7 @@
         <v>299</v>
       </c>
       <c r="C395" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -6632,7 +6632,7 @@
         <v>299</v>
       </c>
       <c r="C396" t="s">
-        <v>394</v>
+        <v>587</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
@@ -6643,7 +6643,7 @@
         <v>299</v>
       </c>
       <c r="C397" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
@@ -6654,7 +6654,7 @@
         <v>299</v>
       </c>
       <c r="C398" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
@@ -6665,7 +6665,7 @@
         <v>299</v>
       </c>
       <c r="C399" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
@@ -6676,7 +6676,7 @@
         <v>299</v>
       </c>
       <c r="C400" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
@@ -6687,7 +6687,7 @@
         <v>299</v>
       </c>
       <c r="C401" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -6698,7 +6698,7 @@
         <v>299</v>
       </c>
       <c r="C402" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
@@ -6709,7 +6709,7 @@
         <v>299</v>
       </c>
       <c r="C403" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
@@ -6720,7 +6720,7 @@
         <v>299</v>
       </c>
       <c r="C404" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
@@ -6731,7 +6731,7 @@
         <v>299</v>
       </c>
       <c r="C405" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -6742,7 +6742,7 @@
         <v>299</v>
       </c>
       <c r="C406" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
@@ -6753,7 +6753,7 @@
         <v>299</v>
       </c>
       <c r="C407" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
@@ -6764,7 +6764,7 @@
         <v>299</v>
       </c>
       <c r="C408" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
@@ -6775,7 +6775,7 @@
         <v>299</v>
       </c>
       <c r="C409" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
@@ -6786,7 +6786,7 @@
         <v>299</v>
       </c>
       <c r="C410" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
@@ -6797,7 +6797,7 @@
         <v>299</v>
       </c>
       <c r="C411" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
@@ -6808,7 +6808,7 @@
         <v>299</v>
       </c>
       <c r="C412" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
@@ -6819,7 +6819,7 @@
         <v>299</v>
       </c>
       <c r="C413" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -6830,7 +6830,7 @@
         <v>299</v>
       </c>
       <c r="C414" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
@@ -6841,7 +6841,7 @@
         <v>299</v>
       </c>
       <c r="C415" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
@@ -6852,7 +6852,7 @@
         <v>299</v>
       </c>
       <c r="C416" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
@@ -6863,7 +6863,7 @@
         <v>299</v>
       </c>
       <c r="C417" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
@@ -6874,7 +6874,7 @@
         <v>299</v>
       </c>
       <c r="C418" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -6885,7 +6885,7 @@
         <v>299</v>
       </c>
       <c r="C419" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -6896,7 +6896,7 @@
         <v>299</v>
       </c>
       <c r="C420" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
@@ -6907,7 +6907,7 @@
         <v>299</v>
       </c>
       <c r="C421" t="s">
-        <v>419</v>
+        <v>588</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
@@ -6918,7 +6918,7 @@
         <v>299</v>
       </c>
       <c r="C422" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
@@ -6929,7 +6929,7 @@
         <v>299</v>
       </c>
       <c r="C423" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -6940,7 +6940,7 @@
         <v>299</v>
       </c>
       <c r="C424" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -6951,7 +6951,7 @@
         <v>299</v>
       </c>
       <c r="C425" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -6962,7 +6962,7 @@
         <v>299</v>
       </c>
       <c r="C426" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -6973,7 +6973,7 @@
         <v>299</v>
       </c>
       <c r="C427" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -6984,7 +6984,7 @@
         <v>299</v>
       </c>
       <c r="C428" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -6995,7 +6995,7 @@
         <v>299</v>
       </c>
       <c r="C429" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -7006,7 +7006,7 @@
         <v>299</v>
       </c>
       <c r="C430" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
@@ -7017,7 +7017,7 @@
         <v>299</v>
       </c>
       <c r="C431" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -7028,7 +7028,7 @@
         <v>299</v>
       </c>
       <c r="C432" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -7039,7 +7039,7 @@
         <v>299</v>
       </c>
       <c r="C433" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -7050,7 +7050,7 @@
         <v>299</v>
       </c>
       <c r="C434" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -7061,7 +7061,7 @@
         <v>299</v>
       </c>
       <c r="C435" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -7072,7 +7072,7 @@
         <v>299</v>
       </c>
       <c r="C436" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -7083,7 +7083,7 @@
         <v>299</v>
       </c>
       <c r="C437" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -7094,7 +7094,7 @@
         <v>299</v>
       </c>
       <c r="C438" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
@@ -7105,7 +7105,7 @@
         <v>299</v>
       </c>
       <c r="C439" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -7116,7 +7116,7 @@
         <v>299</v>
       </c>
       <c r="C440" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
@@ -7127,7 +7127,7 @@
         <v>299</v>
       </c>
       <c r="C441" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
@@ -7138,7 +7138,7 @@
         <v>299</v>
       </c>
       <c r="C442" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -7149,7 +7149,7 @@
         <v>299</v>
       </c>
       <c r="C443" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -7160,7 +7160,7 @@
         <v>299</v>
       </c>
       <c r="C444" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
@@ -7171,7 +7171,7 @@
         <v>299</v>
       </c>
       <c r="C445" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -7182,7 +7182,7 @@
         <v>299</v>
       </c>
       <c r="C446" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -7193,7 +7193,7 @@
         <v>299</v>
       </c>
       <c r="C447" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
@@ -7204,7 +7204,7 @@
         <v>299</v>
       </c>
       <c r="C448" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
@@ -7215,7 +7215,7 @@
         <v>299</v>
       </c>
       <c r="C449" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -7226,7 +7226,7 @@
         <v>299</v>
       </c>
       <c r="C450" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
@@ -7237,7 +7237,7 @@
         <v>299</v>
       </c>
       <c r="C451" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
@@ -7248,7 +7248,7 @@
         <v>299</v>
       </c>
       <c r="C452" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
@@ -7259,7 +7259,7 @@
         <v>299</v>
       </c>
       <c r="C453" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
@@ -7270,7 +7270,7 @@
         <v>299</v>
       </c>
       <c r="C454" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
@@ -7281,7 +7281,7 @@
         <v>299</v>
       </c>
       <c r="C455" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
@@ -7292,7 +7292,7 @@
         <v>299</v>
       </c>
       <c r="C456" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
@@ -7303,7 +7303,7 @@
         <v>299</v>
       </c>
       <c r="C457" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -7314,7 +7314,7 @@
         <v>299</v>
       </c>
       <c r="C458" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
@@ -7325,7 +7325,7 @@
         <v>299</v>
       </c>
       <c r="C459" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -7336,7 +7336,7 @@
         <v>299</v>
       </c>
       <c r="C460" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -7347,7 +7347,7 @@
         <v>299</v>
       </c>
       <c r="C461" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
@@ -7358,7 +7358,7 @@
         <v>299</v>
       </c>
       <c r="C462" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -7369,7 +7369,7 @@
         <v>299</v>
       </c>
       <c r="C463" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
@@ -7380,7 +7380,7 @@
         <v>299</v>
       </c>
       <c r="C464" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
@@ -7391,7 +7391,7 @@
         <v>299</v>
       </c>
       <c r="C465" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
@@ -7402,7 +7402,7 @@
         <v>299</v>
       </c>
       <c r="C466" t="s">
-        <v>464</v>
+        <v>589</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
@@ -7413,7 +7413,7 @@
         <v>299</v>
       </c>
       <c r="C467" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -7424,7 +7424,7 @@
         <v>299</v>
       </c>
       <c r="C468" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -7435,7 +7435,7 @@
         <v>299</v>
       </c>
       <c r="C469" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
@@ -7446,7 +7446,7 @@
         <v>299</v>
       </c>
       <c r="C470" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
@@ -7457,7 +7457,7 @@
         <v>299</v>
       </c>
       <c r="C471" t="s">
-        <v>469</v>
+        <v>590</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
@@ -7468,7 +7468,7 @@
         <v>299</v>
       </c>
       <c r="C472" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
@@ -7479,7 +7479,7 @@
         <v>299</v>
       </c>
       <c r="C473" t="s">
-        <v>471</v>
+        <v>591</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
@@ -7490,7 +7490,7 @@
         <v>299</v>
       </c>
       <c r="C474" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
@@ -7501,7 +7501,7 @@
         <v>299</v>
       </c>
       <c r="C475" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
@@ -7512,7 +7512,7 @@
         <v>299</v>
       </c>
       <c r="C476" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
@@ -7523,7 +7523,7 @@
         <v>299</v>
       </c>
       <c r="C477" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
@@ -7534,7 +7534,7 @@
         <v>299</v>
       </c>
       <c r="C478" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
@@ -7545,7 +7545,7 @@
         <v>299</v>
       </c>
       <c r="C479" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
@@ -7556,7 +7556,7 @@
         <v>299</v>
       </c>
       <c r="C480" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
@@ -7567,7 +7567,7 @@
         <v>299</v>
       </c>
       <c r="C481" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -7578,7 +7578,7 @@
         <v>299</v>
       </c>
       <c r="C482" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
@@ -7589,7 +7589,7 @@
         <v>299</v>
       </c>
       <c r="C483" t="s">
-        <v>481</v>
+        <v>599</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
@@ -7600,7 +7600,7 @@
         <v>299</v>
       </c>
       <c r="C484" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -7611,7 +7611,7 @@
         <v>299</v>
       </c>
       <c r="C485" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
@@ -7622,7 +7622,7 @@
         <v>299</v>
       </c>
       <c r="C486" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
@@ -7633,7 +7633,7 @@
         <v>299</v>
       </c>
       <c r="C487" t="s">
-        <v>485</v>
+        <v>600</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
@@ -7644,7 +7644,7 @@
         <v>299</v>
       </c>
       <c r="C488" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -7655,7 +7655,7 @@
         <v>299</v>
       </c>
       <c r="C489" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
@@ -7666,7 +7666,7 @@
         <v>299</v>
       </c>
       <c r="C490" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
@@ -7677,7 +7677,7 @@
         <v>299</v>
       </c>
       <c r="C491" t="s">
-        <v>489</v>
+        <v>601</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
@@ -7688,7 +7688,7 @@
         <v>299</v>
       </c>
       <c r="C492" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -7699,7 +7699,7 @@
         <v>299</v>
       </c>
       <c r="C493" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
@@ -7710,7 +7710,7 @@
         <v>299</v>
       </c>
       <c r="C494" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
@@ -7721,7 +7721,7 @@
         <v>299</v>
       </c>
       <c r="C495" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
@@ -7732,7 +7732,7 @@
         <v>299</v>
       </c>
       <c r="C496" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
@@ -7743,7 +7743,7 @@
         <v>299</v>
       </c>
       <c r="C497" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -7754,7 +7754,7 @@
         <v>299</v>
       </c>
       <c r="C498" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -7765,7 +7765,7 @@
         <v>299</v>
       </c>
       <c r="C499" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
@@ -7776,7 +7776,7 @@
         <v>299</v>
       </c>
       <c r="C500" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -7787,7 +7787,7 @@
         <v>299</v>
       </c>
       <c r="C501" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -7798,7 +7798,7 @@
         <v>299</v>
       </c>
       <c r="C502" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -7809,7 +7809,7 @@
         <v>299</v>
       </c>
       <c r="C503" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -7820,7 +7820,7 @@
         <v>299</v>
       </c>
       <c r="C504" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -7831,7 +7831,7 @@
         <v>299</v>
       </c>
       <c r="C505" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -7842,7 +7842,7 @@
         <v>299</v>
       </c>
       <c r="C506" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -7853,7 +7853,7 @@
         <v>299</v>
       </c>
       <c r="C507" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
@@ -7864,7 +7864,7 @@
         <v>299</v>
       </c>
       <c r="C508" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
@@ -7875,7 +7875,7 @@
         <v>299</v>
       </c>
       <c r="C509" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
@@ -7886,7 +7886,7 @@
         <v>299</v>
       </c>
       <c r="C510" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
@@ -7897,7 +7897,7 @@
         <v>299</v>
       </c>
       <c r="C511" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
@@ -7908,7 +7908,7 @@
         <v>299</v>
       </c>
       <c r="C512" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -7919,7 +7919,7 @@
         <v>299</v>
       </c>
       <c r="C513" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
@@ -7930,7 +7930,7 @@
         <v>299</v>
       </c>
       <c r="C514" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -7941,7 +7941,7 @@
         <v>299</v>
       </c>
       <c r="C515" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
@@ -7952,7 +7952,7 @@
         <v>299</v>
       </c>
       <c r="C516" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
@@ -7963,7 +7963,7 @@
         <v>299</v>
       </c>
       <c r="C517" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
@@ -7974,7 +7974,7 @@
         <v>299</v>
       </c>
       <c r="C518" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
@@ -7985,7 +7985,7 @@
         <v>299</v>
       </c>
       <c r="C519" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -7996,7 +7996,7 @@
         <v>299</v>
       </c>
       <c r="C520" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -8007,7 +8007,7 @@
         <v>299</v>
       </c>
       <c r="C521" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -8018,7 +8018,7 @@
         <v>299</v>
       </c>
       <c r="C522" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -8029,7 +8029,7 @@
         <v>299</v>
       </c>
       <c r="C523" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -8040,7 +8040,7 @@
         <v>299</v>
       </c>
       <c r="C524" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -8051,7 +8051,7 @@
         <v>299</v>
       </c>
       <c r="C525" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
@@ -8062,7 +8062,7 @@
         <v>299</v>
       </c>
       <c r="C526" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -8073,7 +8073,7 @@
         <v>299</v>
       </c>
       <c r="C527" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -8084,7 +8084,7 @@
         <v>299</v>
       </c>
       <c r="C528" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
@@ -8095,7 +8095,7 @@
         <v>299</v>
       </c>
       <c r="C529" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -8106,7 +8106,7 @@
         <v>299</v>
       </c>
       <c r="C530" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -8117,7 +8117,7 @@
         <v>299</v>
       </c>
       <c r="C531" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -8128,7 +8128,7 @@
         <v>299</v>
       </c>
       <c r="C532" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
@@ -8139,7 +8139,7 @@
         <v>299</v>
       </c>
       <c r="C533" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
@@ -8150,7 +8150,7 @@
         <v>299</v>
       </c>
       <c r="C534" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
@@ -8161,7 +8161,7 @@
         <v>299</v>
       </c>
       <c r="C535" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -8172,7 +8172,7 @@
         <v>299</v>
       </c>
       <c r="C536" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -8183,7 +8183,7 @@
         <v>299</v>
       </c>
       <c r="C537" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
@@ -8194,7 +8194,7 @@
         <v>299</v>
       </c>
       <c r="C538" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
@@ -8205,7 +8205,7 @@
         <v>299</v>
       </c>
       <c r="C539" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -8216,7 +8216,7 @@
         <v>299</v>
       </c>
       <c r="C540" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -8227,7 +8227,7 @@
         <v>299</v>
       </c>
       <c r="C541" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -8238,7 +8238,7 @@
         <v>299</v>
       </c>
       <c r="C542" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -8249,7 +8249,7 @@
         <v>299</v>
       </c>
       <c r="C543" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -8260,7 +8260,7 @@
         <v>299</v>
       </c>
       <c r="C544" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -8271,7 +8271,7 @@
         <v>299</v>
       </c>
       <c r="C545" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -8282,7 +8282,7 @@
         <v>299</v>
       </c>
       <c r="C546" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -8293,7 +8293,7 @@
         <v>299</v>
       </c>
       <c r="C547" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -8304,7 +8304,7 @@
         <v>299</v>
       </c>
       <c r="C548" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -8315,7 +8315,7 @@
         <v>299</v>
       </c>
       <c r="C549" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -8326,7 +8326,7 @@
         <v>299</v>
       </c>
       <c r="C550" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -8337,7 +8337,7 @@
         <v>299</v>
       </c>
       <c r="C551" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -8348,7 +8348,7 @@
         <v>299</v>
       </c>
       <c r="C552" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -8359,7 +8359,7 @@
         <v>299</v>
       </c>
       <c r="C553" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -8370,7 +8370,7 @@
         <v>299</v>
       </c>
       <c r="C554" t="s">
-        <v>552</v>
+        <v>525</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -8381,7 +8381,7 @@
         <v>299</v>
       </c>
       <c r="C555" t="s">
-        <v>553</v>
+        <v>526</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -8392,7 +8392,7 @@
         <v>299</v>
       </c>
       <c r="C556" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -8403,7 +8403,7 @@
         <v>299</v>
       </c>
       <c r="C557" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -8414,7 +8414,7 @@
         <v>299</v>
       </c>
       <c r="C558" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -8425,7 +8425,7 @@
         <v>299</v>
       </c>
       <c r="C559" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -8436,7 +8436,7 @@
         <v>299</v>
       </c>
       <c r="C560" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -8447,7 +8447,7 @@
         <v>299</v>
       </c>
       <c r="C561" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -8458,7 +8458,7 @@
         <v>299</v>
       </c>
       <c r="C562" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -8469,7 +8469,7 @@
         <v>299</v>
       </c>
       <c r="C563" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -8480,7 +8480,7 @@
         <v>299</v>
       </c>
       <c r="C564" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -8491,7 +8491,7 @@
         <v>299</v>
       </c>
       <c r="C565" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -8502,7 +8502,7 @@
         <v>299</v>
       </c>
       <c r="C566" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -8513,7 +8513,7 @@
         <v>299</v>
       </c>
       <c r="C567" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -8524,7 +8524,7 @@
         <v>299</v>
       </c>
       <c r="C568" t="s">
-        <v>566</v>
+        <v>539</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -8535,7 +8535,7 @@
         <v>299</v>
       </c>
       <c r="C569" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -8546,7 +8546,7 @@
         <v>299</v>
       </c>
       <c r="C570" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -8557,7 +8557,7 @@
         <v>299</v>
       </c>
       <c r="C571" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -8568,7 +8568,7 @@
         <v>299</v>
       </c>
       <c r="C572" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -8579,7 +8579,7 @@
         <v>299</v>
       </c>
       <c r="C573" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -8590,7 +8590,7 @@
         <v>299</v>
       </c>
       <c r="C574" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -8601,7 +8601,7 @@
         <v>299</v>
       </c>
       <c r="C575" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -8612,7 +8612,7 @@
         <v>299</v>
       </c>
       <c r="C576" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -8623,7 +8623,7 @@
         <v>299</v>
       </c>
       <c r="C577" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -8634,7 +8634,7 @@
         <v>299</v>
       </c>
       <c r="C578" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -8645,7 +8645,7 @@
         <v>299</v>
       </c>
       <c r="C579" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -8656,7 +8656,7 @@
         <v>299</v>
       </c>
       <c r="C580" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -8667,7 +8667,7 @@
         <v>299</v>
       </c>
       <c r="C581" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -8678,7 +8678,7 @@
         <v>299</v>
       </c>
       <c r="C582" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -8689,7 +8689,7 @@
         <v>299</v>
       </c>
       <c r="C583" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -8700,7 +8700,7 @@
         <v>299</v>
       </c>
       <c r="C584" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
@@ -8711,7 +8711,7 @@
         <v>299</v>
       </c>
       <c r="C585" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -8722,7 +8722,7 @@
         <v>299</v>
       </c>
       <c r="C586" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
@@ -8733,7 +8733,7 @@
         <v>299</v>
       </c>
       <c r="C587" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
@@ -8744,7 +8744,7 @@
         <v>299</v>
       </c>
       <c r="C588" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
@@ -8755,7 +8755,7 @@
         <v>299</v>
       </c>
       <c r="C589" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
@@ -8766,7 +8766,7 @@
         <v>299</v>
       </c>
       <c r="C590" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -8777,7 +8777,7 @@
         <v>299</v>
       </c>
       <c r="C591" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
@@ -8788,7 +8788,7 @@
         <v>299</v>
       </c>
       <c r="C592" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
@@ -8799,7 +8799,7 @@
         <v>299</v>
       </c>
       <c r="C593" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -8810,7 +8810,7 @@
         <v>299</v>
       </c>
       <c r="C594" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
@@ -8821,7 +8821,7 @@
         <v>299</v>
       </c>
       <c r="C595" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
@@ -8832,7 +8832,7 @@
         <v>299</v>
       </c>
       <c r="C596" t="s">
-        <v>594</v>
+        <v>565</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -8843,7 +8843,7 @@
         <v>299</v>
       </c>
       <c r="C597" t="s">
-        <v>595</v>
+        <v>566</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
@@ -8854,7 +8854,7 @@
         <v>299</v>
       </c>
       <c r="C598" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -8865,7 +8865,7 @@
         <v>299</v>
       </c>
       <c r="C599" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -8876,7 +8876,7 @@
         <v>299</v>
       </c>
       <c r="C600" t="s">
-        <v>598</v>
+        <v>569</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
@@ -8887,7 +8887,7 @@
         <v>299</v>
       </c>
       <c r="C601" t="s">
-        <v>599</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/ids.xlsx
+++ b/ids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hilda\folkdataset\folkdataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC37A5F-C03A-4B6E-91F5-0FA53455F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E7A01-1011-4F5F-AFAB-3D951B9ADB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2115" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ismir_dataset" sheetId="1" r:id="rId1"/>
@@ -505,12 +505,6 @@
     <t>polka_Kierans_1_e_1.krn</t>
   </si>
   <si>
-    <t>polka_La-Ponentina_1_e_1.krn</t>
-  </si>
-  <si>
-    <t>polka_March-To-Victory--The_1_e_1.krn</t>
-  </si>
-  <si>
     <t>polka_Mike-Coens_1_e_1.krn</t>
   </si>
   <si>
@@ -535,9 +529,6 @@
     <t>polka_Pudding--The_1_e_1.krn</t>
   </si>
   <si>
-    <t>polka_Revilles_1_e_1.krn</t>
-  </si>
-  <si>
     <t>polka_Siege-Of-Ennis--The_1_e_1.krn</t>
   </si>
   <si>
@@ -1835,6 +1826,15 @@
   </si>
   <si>
     <t>pezas_pasodobles_pernas-pra-arriba_pernas-pra-arriba-partitura_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>polka_La-Molinera_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>polka_Ring-OBells_1_e_1.krn</t>
+  </si>
+  <si>
+    <t>polka_Road-To-Santiago_1_e_1.krn</t>
   </si>
 </sst>
 </file>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E521" sqref="E521"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3299,7 +3299,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -3519,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -4080,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -4091,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,7 +4102,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -4135,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -4146,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -4179,7 +4179,7 @@
         <v>3</v>
       </c>
       <c r="C173" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>171</v>
+        <v>604</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -4201,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -4212,7 +4212,7 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -4223,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -4234,7 +4234,7 @@
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -4245,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -4267,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -4278,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -4289,7 +4289,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -4300,7 +4300,7 @@
         <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -4311,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -4322,7 +4322,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -4333,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -4344,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -4355,7 +4355,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -4366,7 +4366,7 @@
         <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -4388,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -4399,7 +4399,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -4476,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -4487,7 +4487,7 @@
         <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -4498,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -4531,7 +4531,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -4542,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -4553,7 +4553,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -4564,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -4575,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -4586,7 +4586,7 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -4630,7 +4630,7 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -4652,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -4663,7 +4663,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -4685,7 +4685,7 @@
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -4696,7 +4696,7 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -4707,7 +4707,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -4729,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -4751,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -4762,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -4773,7 +4773,7 @@
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -4795,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -4817,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -4828,7 +4828,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -4839,7 +4839,7 @@
         <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -4850,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -4861,7 +4861,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -4872,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -4883,7 +4883,7 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -4894,7 +4894,7 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -4916,7 +4916,7 @@
         <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -4927,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -4938,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="C242" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -4971,7 +4971,7 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="C247" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -5004,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -5015,7 +5015,7 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -5048,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -5059,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -5070,7 +5070,7 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -5081,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -5092,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -5103,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -5114,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -5136,7 +5136,7 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -5147,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -5158,7 +5158,7 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -5169,7 +5169,7 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -5180,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -5202,7 +5202,7 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -5213,7 +5213,7 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -5235,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -5246,7 +5246,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -5257,7 +5257,7 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -5268,7 +5268,7 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -5290,7 +5290,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -5301,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="C275" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -5323,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -5334,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -5345,7 +5345,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -5356,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="C280" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -5367,7 +5367,7 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -5378,7 +5378,7 @@
         <v>3</v>
       </c>
       <c r="C282" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -5389,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -5411,7 +5411,7 @@
         <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -5422,7 +5422,7 @@
         <v>3</v>
       </c>
       <c r="C286" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -5433,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="C287" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -5466,7 +5466,7 @@
         <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -5477,7 +5477,7 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="C292" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -5499,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -5510,7 +5510,7 @@
         <v>3</v>
       </c>
       <c r="C294" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="C295" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -5532,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="C296" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -5543,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="C297" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -5554,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -5565,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -5576,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="C301" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -5595,10 +5595,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C302" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -5606,10 +5606,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C303" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -5617,10 +5617,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C304" t="s">
         <v>299</v>
-      </c>
-      <c r="C304" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -5628,10 +5628,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C305" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -5639,10 +5639,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C306" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -5650,10 +5650,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C307" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -5661,10 +5661,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C308" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -5672,10 +5672,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C309" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -5683,10 +5683,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C310" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -5694,10 +5694,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C311" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -5705,10 +5705,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C312" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -5716,10 +5716,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C313" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -5727,10 +5727,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C314" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -5738,10 +5738,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C315" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -5749,10 +5749,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C316" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -5760,10 +5760,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C317" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -5771,10 +5771,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C318" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -5782,10 +5782,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C319" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -5793,10 +5793,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C320" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -5804,10 +5804,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C321" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -5815,10 +5815,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C322" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -5826,10 +5826,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C323" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -5837,10 +5837,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C324" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -5848,10 +5848,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C325" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -5859,10 +5859,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C326" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -5870,10 +5870,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C327" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
@@ -5881,10 +5881,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C328" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
@@ -5892,10 +5892,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C329" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
@@ -5903,10 +5903,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C330" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -5914,10 +5914,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C331" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -5925,10 +5925,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C332" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -5936,10 +5936,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C333" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -5947,10 +5947,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C334" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -5958,10 +5958,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C335" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -5969,10 +5969,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C336" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -5980,10 +5980,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C337" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -5991,10 +5991,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C338" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -6002,10 +6002,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C339" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -6013,10 +6013,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C340" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -6024,10 +6024,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C341" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
@@ -6035,10 +6035,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C342" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
@@ -6046,10 +6046,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C343" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
@@ -6057,10 +6057,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C344" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
@@ -6068,10 +6068,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C345" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
@@ -6079,10 +6079,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C346" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
@@ -6090,10 +6090,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C347" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
@@ -6101,10 +6101,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C348" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
@@ -6112,10 +6112,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C349" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
@@ -6123,10 +6123,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C350" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -6134,10 +6134,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C351" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
@@ -6145,10 +6145,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C352" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
@@ -6156,10 +6156,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C353" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,10 +6167,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C354" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
@@ -6178,10 +6178,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C355" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
@@ -6189,10 +6189,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C356" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
@@ -6200,10 +6200,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C357" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
@@ -6211,10 +6211,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C358" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
@@ -6222,10 +6222,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C359" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
@@ -6233,10 +6233,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C360" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -6244,10 +6244,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C361" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
@@ -6255,10 +6255,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C362" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
@@ -6266,10 +6266,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C363" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
@@ -6277,10 +6277,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C364" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
@@ -6288,10 +6288,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C365" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
@@ -6299,10 +6299,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C366" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
@@ -6310,10 +6310,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C367" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
@@ -6321,10 +6321,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C368" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
@@ -6332,10 +6332,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C369" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
@@ -6343,10 +6343,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C370" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
@@ -6354,10 +6354,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C371" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
@@ -6365,10 +6365,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C372" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -6376,10 +6376,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C373" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
@@ -6387,10 +6387,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C374" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
@@ -6398,10 +6398,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C375" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
@@ -6409,10 +6409,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C376" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
@@ -6420,10 +6420,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C377" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
@@ -6431,10 +6431,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C378" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
@@ -6442,10 +6442,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C379" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
@@ -6453,10 +6453,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C380" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
@@ -6464,10 +6464,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C381" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
@@ -6475,10 +6475,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C382" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
@@ -6486,10 +6486,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C383" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
@@ -6497,10 +6497,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C384" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
@@ -6508,10 +6508,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C385" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
@@ -6519,10 +6519,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C386" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
@@ -6530,10 +6530,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C387" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
@@ -6541,10 +6541,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C388" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
@@ -6552,10 +6552,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C389" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
@@ -6563,10 +6563,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C390" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
@@ -6574,10 +6574,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C391" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
@@ -6585,10 +6585,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C392" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
@@ -6596,10 +6596,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C393" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
@@ -6607,10 +6607,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C394" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
@@ -6618,10 +6618,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C395" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
@@ -6629,10 +6629,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C396" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
@@ -6640,10 +6640,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C397" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
@@ -6651,10 +6651,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C398" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
@@ -6662,10 +6662,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C399" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
@@ -6673,10 +6673,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C400" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
@@ -6684,10 +6684,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C401" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -6695,10 +6695,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C402" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
@@ -6706,10 +6706,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C403" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
@@ -6717,10 +6717,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C404" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
@@ -6728,10 +6728,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C405" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
@@ -6739,10 +6739,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C406" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
@@ -6750,10 +6750,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C407" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
@@ -6761,10 +6761,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C408" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
@@ -6772,10 +6772,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C409" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
@@ -6783,10 +6783,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C410" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
@@ -6794,10 +6794,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C411" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
@@ -6805,10 +6805,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C412" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
@@ -6816,10 +6816,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C413" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
@@ -6827,10 +6827,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C414" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
@@ -6838,10 +6838,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C415" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
@@ -6849,10 +6849,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C416" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
@@ -6860,10 +6860,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C417" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
@@ -6871,10 +6871,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C418" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
@@ -6882,10 +6882,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C419" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
@@ -6893,10 +6893,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C420" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
@@ -6904,10 +6904,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C421" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
@@ -6915,10 +6915,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C422" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
@@ -6926,10 +6926,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C423" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
@@ -6937,10 +6937,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C424" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
@@ -6948,10 +6948,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C425" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
@@ -6959,10 +6959,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C426" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
@@ -6970,10 +6970,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C427" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
@@ -6981,10 +6981,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C428" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
@@ -6992,10 +6992,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C429" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
@@ -7003,10 +7003,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C430" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
@@ -7014,10 +7014,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C431" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
@@ -7025,10 +7025,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C432" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -7036,10 +7036,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C433" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
@@ -7047,10 +7047,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C434" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
@@ -7058,10 +7058,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C435" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
@@ -7069,10 +7069,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C436" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
@@ -7080,10 +7080,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C437" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
@@ -7091,10 +7091,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C438" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
@@ -7102,10 +7102,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C439" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
@@ -7113,10 +7113,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C440" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
@@ -7124,10 +7124,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C441" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
@@ -7135,10 +7135,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C442" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
@@ -7146,10 +7146,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C443" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
@@ -7157,10 +7157,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C444" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
@@ -7168,10 +7168,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C445" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
@@ -7179,10 +7179,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C446" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
@@ -7190,10 +7190,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C447" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
@@ -7201,10 +7201,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C448" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
@@ -7212,10 +7212,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C449" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
@@ -7223,10 +7223,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C450" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
@@ -7234,10 +7234,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C451" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
@@ -7245,10 +7245,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C452" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
@@ -7256,10 +7256,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C453" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
@@ -7267,10 +7267,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C454" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
@@ -7278,10 +7278,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C455" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
@@ -7289,10 +7289,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C456" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
@@ -7300,10 +7300,10 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C457" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
@@ -7311,10 +7311,10 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C458" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
@@ -7322,10 +7322,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C459" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
@@ -7333,10 +7333,10 @@
         <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C460" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
@@ -7344,10 +7344,10 @@
         <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C461" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
@@ -7355,10 +7355,10 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C462" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
@@ -7366,10 +7366,10 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C463" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
@@ -7377,10 +7377,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C464" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
@@ -7388,10 +7388,10 @@
         <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C465" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
@@ -7399,10 +7399,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C466" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
@@ -7410,10 +7410,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C467" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
@@ -7421,10 +7421,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C468" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
@@ -7432,10 +7432,10 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C469" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
@@ -7443,10 +7443,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C470" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
@@ -7454,10 +7454,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C471" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
@@ -7465,10 +7465,10 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C472" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
@@ -7476,10 +7476,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C473" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
@@ -7487,10 +7487,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C474" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
@@ -7498,10 +7498,10 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C475" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
@@ -7509,10 +7509,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C476" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
@@ -7520,10 +7520,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C477" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
@@ -7531,10 +7531,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C478" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
@@ -7542,10 +7542,10 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C479" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
@@ -7553,10 +7553,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C480" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
@@ -7564,10 +7564,10 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C481" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
@@ -7575,10 +7575,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C482" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
@@ -7586,10 +7586,10 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C483" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
@@ -7597,10 +7597,10 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C484" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
@@ -7608,10 +7608,10 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C485" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
@@ -7619,10 +7619,10 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C486" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
@@ -7630,10 +7630,10 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C487" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
@@ -7641,10 +7641,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C488" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
@@ -7652,10 +7652,10 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C489" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
@@ -7663,10 +7663,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C490" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
@@ -7674,10 +7674,10 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C491" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
@@ -7685,10 +7685,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C492" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
@@ -7696,10 +7696,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C493" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
@@ -7707,10 +7707,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C494" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
@@ -7718,10 +7718,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C495" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
@@ -7729,10 +7729,10 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C496" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
@@ -7740,10 +7740,10 @@
         <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C497" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
@@ -7751,10 +7751,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C498" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
@@ -7762,10 +7762,10 @@
         <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C499" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
@@ -7773,10 +7773,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C500" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -7784,10 +7784,10 @@
         <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C501" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
@@ -7795,10 +7795,10 @@
         <v>501</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C502" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
@@ -7806,10 +7806,10 @@
         <v>502</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C503" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
@@ -7817,10 +7817,10 @@
         <v>503</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C504" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
@@ -7828,10 +7828,10 @@
         <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C505" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
@@ -7839,10 +7839,10 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C506" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
@@ -7850,10 +7850,10 @@
         <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C507" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
@@ -7861,10 +7861,10 @@
         <v>507</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C508" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
@@ -7872,10 +7872,10 @@
         <v>508</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C509" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
@@ -7883,10 +7883,10 @@
         <v>509</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C510" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
@@ -7894,10 +7894,10 @@
         <v>510</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C511" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
@@ -7905,10 +7905,10 @@
         <v>511</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C512" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -7916,10 +7916,10 @@
         <v>512</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C513" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
@@ -7927,10 +7927,10 @@
         <v>513</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C514" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
@@ -7938,10 +7938,10 @@
         <v>514</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C515" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
@@ -7949,10 +7949,10 @@
         <v>515</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C516" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
@@ -7960,10 +7960,10 @@
         <v>516</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C517" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
@@ -7971,10 +7971,10 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C518" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
@@ -7982,10 +7982,10 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C519" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
@@ -7993,10 +7993,10 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C520" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
@@ -8004,10 +8004,10 @@
         <v>520</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C521" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
@@ -8015,10 +8015,10 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C522" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
@@ -8026,10 +8026,10 @@
         <v>522</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C523" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
@@ -8037,10 +8037,10 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C524" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
@@ -8048,10 +8048,10 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C525" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
@@ -8059,10 +8059,10 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C526" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
@@ -8070,10 +8070,10 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C527" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
@@ -8081,10 +8081,10 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C528" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
@@ -8092,10 +8092,10 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C529" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
@@ -8103,10 +8103,10 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C530" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
@@ -8114,10 +8114,10 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C531" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
@@ -8125,10 +8125,10 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C532" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
@@ -8136,10 +8136,10 @@
         <v>532</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C533" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
@@ -8147,10 +8147,10 @@
         <v>533</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C534" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
@@ -8158,10 +8158,10 @@
         <v>534</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C535" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
@@ -8169,10 +8169,10 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C536" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
@@ -8180,10 +8180,10 @@
         <v>536</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C537" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
@@ -8191,10 +8191,10 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C538" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
@@ -8202,10 +8202,10 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C539" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
@@ -8213,10 +8213,10 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C540" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
@@ -8224,10 +8224,10 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C541" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
@@ -8235,10 +8235,10 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C542" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
@@ -8246,10 +8246,10 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C543" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
@@ -8257,10 +8257,10 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C544" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
@@ -8268,10 +8268,10 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C545" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
@@ -8279,10 +8279,10 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C546" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
@@ -8290,10 +8290,10 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C547" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
@@ -8301,10 +8301,10 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C548" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.35">
@@ -8312,10 +8312,10 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C549" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
@@ -8323,10 +8323,10 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C550" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
@@ -8334,10 +8334,10 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C551" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
@@ -8345,10 +8345,10 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C552" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
@@ -8356,10 +8356,10 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C553" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
@@ -8367,10 +8367,10 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C554" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
@@ -8378,10 +8378,10 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C555" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
@@ -8389,10 +8389,10 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C556" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
@@ -8400,10 +8400,10 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C557" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
@@ -8411,10 +8411,10 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C558" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
@@ -8422,10 +8422,10 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C559" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
@@ -8433,10 +8433,10 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C560" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
@@ -8444,10 +8444,10 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C561" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
@@ -8455,10 +8455,10 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C562" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
@@ -8466,10 +8466,10 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C563" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
@@ -8477,10 +8477,10 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C564" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
@@ -8488,10 +8488,10 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C565" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
@@ -8499,10 +8499,10 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C566" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
@@ -8510,10 +8510,10 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C567" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
@@ -8521,10 +8521,10 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C568" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
@@ -8532,10 +8532,10 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C569" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
@@ -8543,10 +8543,10 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C570" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
@@ -8554,10 +8554,10 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C571" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
@@ -8565,10 +8565,10 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C572" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
@@ -8576,10 +8576,10 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C573" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.35">
@@ -8587,10 +8587,10 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C574" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
@@ -8598,10 +8598,10 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C575" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
@@ -8609,10 +8609,10 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C576" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -8620,10 +8620,10 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C577" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.35">
@@ -8631,10 +8631,10 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C578" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.35">
@@ -8642,10 +8642,10 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C579" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
@@ -8653,10 +8653,10 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C580" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
@@ -8664,10 +8664,10 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C581" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
@@ -8675,10 +8675,10 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C582" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
@@ -8686,10 +8686,10 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C583" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -8697,10 +8697,10 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C584" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
@@ -8708,10 +8708,10 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C585" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -8719,10 +8719,10 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C586" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
@@ -8730,10 +8730,10 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C587" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
@@ -8741,10 +8741,10 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C588" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
@@ -8752,10 +8752,10 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C589" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
@@ -8763,10 +8763,10 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C590" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
@@ -8774,10 +8774,10 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C591" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
@@ -8785,10 +8785,10 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C592" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.35">
@@ -8796,10 +8796,10 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C593" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.35">
@@ -8807,10 +8807,10 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C594" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.35">
@@ -8818,10 +8818,10 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C595" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.35">
@@ -8829,10 +8829,10 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C596" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.35">
@@ -8840,10 +8840,10 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C597" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.35">
@@ -8851,10 +8851,10 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C598" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.35">
@@ -8862,10 +8862,10 @@
         <v>598</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C599" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.35">
@@ -8873,10 +8873,10 @@
         <v>599</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C600" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.35">
@@ -8884,10 +8884,10 @@
         <v>600</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C601" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
